--- a/ExcelImport/src/main/webapp/resources/ExcelTemplate/MaterialImportTemplate.xlsx
+++ b/ExcelImport/src/main/webapp/resources/ExcelTemplate/MaterialImportTemplate.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -60,9 +58,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,7 +77,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,8 +119,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,8 +144,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,38 +167,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,15 +199,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,33 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,6 +235,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -249,7 +253,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +313,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,13 +349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,73 +373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,25 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,17 +444,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,26 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,8 +492,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +524,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -551,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27774,38 +27772,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>